--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\pytestParametrizeReadExcelData\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\pytest-demo-read-excel-data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D824EED7-40E8-4594-B412-5813AD3A1015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577CEAB-AD36-4F00-BAAD-D9F8C22671C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="21600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation1" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
